--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5886220899362743</v>
+        <v>0.5589519839034186</v>
       </c>
       <c r="D2">
-        <v>0.5561939864713143</v>
+        <v>0.5818401712027534</v>
       </c>
       <c r="E2">
         <v>0.6369763487425241</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.185643681379553</v>
+        <v>1.10156351950153</v>
       </c>
       <c r="D3">
-        <v>0.2359308124031521</v>
+        <v>0.2825577250161191</v>
       </c>
       <c r="E3">
         <v>0.6369763487425241</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.1414607788976677</v>
+        <v>0.1244755502189791</v>
       </c>
       <c r="D4">
-        <v>0.8875229127195707</v>
+        <v>0.9020691155412068</v>
       </c>
       <c r="E4">
         <v>0.6369763487425241</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.2207565097912867</v>
+        <v>0.1765663356847198</v>
       </c>
       <c r="D5">
-        <v>0.8253088688689814</v>
+        <v>0.8614643740339849</v>
       </c>
       <c r="E5">
         <v>0.6369763487425241</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.390191336032477</v>
+        <v>0.3716140265417159</v>
       </c>
       <c r="D6">
-        <v>0.6964445621790585</v>
+        <v>0.7137353326550464</v>
       </c>
       <c r="E6">
         <v>0.6203871730152966</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.5621260915038901</v>
+        <v>-0.8086275764389266</v>
       </c>
       <c r="D7">
-        <v>0.5741051463506386</v>
+        <v>0.4273878994668798</v>
       </c>
       <c r="E7">
         <v>0.6203871730152966</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.4785421259878961</v>
+        <v>-0.473365998010179</v>
       </c>
       <c r="D8">
-        <v>0.6323267055771007</v>
+        <v>0.6406154285286039</v>
       </c>
       <c r="E8">
         <v>0.6203871730152966</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.139521865319022</v>
+        <v>-1.093104675759802</v>
       </c>
       <c r="D9">
-        <v>0.2546480942416081</v>
+        <v>0.2861732832637562</v>
       </c>
       <c r="E9">
         <v>0.6094402779078255</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.8441726809313607</v>
+        <v>-0.6366810953078901</v>
       </c>
       <c r="D10">
-        <v>0.3986931782361316</v>
+        <v>0.5309021439155921</v>
       </c>
       <c r="E10">
         <v>0.6094402779078255</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.1093337193448813</v>
+        <v>0.09514687176493136</v>
       </c>
       <c r="D11">
-        <v>0.9129508679202034</v>
+        <v>0.9250595036899281</v>
       </c>
       <c r="E11">
         <v>0.6338897565447525</v>
